--- a/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -70,13 +70,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T10:50:09+00:00</t>
+    <t>2025-06-08T18:16:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
     <t>Agence du numérique en santé</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -432,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -534,72 +540,80 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s" s="2">
         <v>26</v>
       </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>31</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s" s="2">
         <v>34</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -617,298 +631,298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -926,13 +940,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s" s="1">
         <v>1</v>
@@ -940,38 +954,38 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
@@ -70,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-08T18:16:56+00:00</t>
+    <t>2025-07-02T12:47:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
@@ -70,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-02T12:47:09+00:00</t>
+    <t>2025-07-30T08:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
@@ -70,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:19:15+00:00</t>
+    <t>2025-10-02T12:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:01:06+00:00</t>
+    <t>2025-11-03T13:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,10 +88,16 @@
     <t>Description</t>
   </si>
   <si>
+    <t>La Classification Internationale des Maladies (CIM) dans sa 11ème révision permet d’établir, partout dans le monde, les statistiques sanitaires. Fournissant un langage commun pour alimenter les dossiers patients électroniques, la CIM11 permet d’échanger des données médicales de manière cohérente et normalisée pour de nombreux cas d’usage (production de soins, coordination professionnelle, pilotage, et exploitation de données)</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>[CC BY-ND 3.0 IGO](https://creativecommons.org/licenses/by-nd/3.0/igo/legalcode)</t>
   </si>
   <si>
     <t>Case Sensitive</t>
@@ -548,72 +554,76 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -631,298 +641,298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>23</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -940,13 +950,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>23</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="1">
         <v>1</v>
@@ -954,38 +964,38 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-cim11-mms.xlsx
@@ -70,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:53:01+00:00</t>
+    <t>2025-12-19T16:18:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
